--- a/10_手順書/01_環境構築手順.xlsx
+++ b/10_手順書/01_環境構築手順.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kmiinst\workspace\nanika\10_手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9907D100-8C6A-4960-B0BF-8E19DA8E49F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8A40A-C1A4-452D-9B84-E2CD3212030E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="-14220" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発環境構築" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DDLについてはそのうち記載</t>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
+    <t>3.ユーザ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4535,6 +4535,1079 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>27337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4954D0C1-F9F6-40AA-95FA-E6BE08BB0CA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="52625625"/>
+          <a:ext cx="7885714" cy="8837962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="吹き出し: 四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F02B25-C3B0-421B-8A27-455E6468E1C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400924" y="53816250"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Login/Group...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を選択。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAAEF23-52D3-45E7-912E-8A76E380EC56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="53978175"/>
+          <a:ext cx="3486150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>8287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCC0337-B7C1-4901-9CFE-49717B2A2F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="61912500"/>
+          <a:ext cx="7885714" cy="8818912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="吹き出し: 四角形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F185AB2-77BD-497B-85A3-BBE1B7E8D3D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4743449" y="63284100"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"student"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と入力。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA7175A-ACBE-45F0-A704-3D8677E1DCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="63446025"/>
+          <a:ext cx="704850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>46387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF971BF-56A2-4A2C-8632-40DC1A1E9934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="71199375"/>
+          <a:ext cx="7885714" cy="8857012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="吹き出し: 四角形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782ADE0A-86C5-486D-8CE1-7291C13EA718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714749" y="72209025"/>
+          <a:ext cx="1143001" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここを選択。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417815F1-00B7-4961-A081-A5CF07930292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="72370950"/>
+          <a:ext cx="704850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="吹き出し: 四角形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D221659B-0670-4D78-974E-B63B4C76DD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4752975" y="72609075"/>
+          <a:ext cx="1285876" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"student"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と入力。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CA221E-B6C8-4698-99C6-F1BD19D3A6B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="72771000"/>
+          <a:ext cx="704850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="吹き出し: 四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D766FE43-E532-4BD9-AEE1-A042B21487B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="76809600"/>
+          <a:ext cx="1285876" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Save</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を押下。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A24675-8AA1-4E97-BCD1-CBCA29789848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="76971525"/>
+          <a:ext cx="704850" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>27337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29D943E-4C80-49CD-ADA8-08EC07AF8CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="80486250"/>
+          <a:ext cx="7885714" cy="8837962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="吹き出し: 四角形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B0502E-AB61-43A1-9F71-AF1D410A8D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800599" y="84629625"/>
+          <a:ext cx="2733675" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -61420"/>
+            <a:gd name="adj2" fmla="val 18822"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>projectStudy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Properties...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を選択。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB5755B-D105-49C7-A76C-042429E26B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="84772500"/>
+          <a:ext cx="2028825" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>414</xdr:row>
+      <xdr:rowOff>36862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{758DDBFF-B32E-421F-95EF-C0879D8EC7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="89773125"/>
+          <a:ext cx="7885714" cy="8847487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4805,7 +5878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4870,7 +5943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377EAFA5-1F56-4712-96FA-55EAE519A9AD}">
   <dimension ref="B2:C221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N338" sqref="N338"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -4894,13 +5969,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B143" t="s">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C143" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C221" t="s">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B221" t="s">
         <v>14</v>
       </c>
     </row>
